--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251002_171859.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251002_171859.xlsx
@@ -7145,7 +7145,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
